--- a/results/FrequencyTables/26990633_LTR-I.xlsx
+++ b/results/FrequencyTables/26990633_LTR-I.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.525252525252525</v>
+        <v>0.574307304785894</v>
       </c>
       <c r="C2">
-        <v>0.0101010101010101</v>
+        <v>0.0163727959697733</v>
       </c>
       <c r="D2">
-        <v>0.0808080808080808</v>
+        <v>0.0604534005037783</v>
       </c>
       <c r="E2">
-        <v>0.939393939393939</v>
+        <v>0.945843828715365</v>
       </c>
       <c r="F2">
-        <v>0.0101010101010101</v>
+        <v>0.0113350125944584</v>
       </c>
       <c r="G2">
-        <v>0.939393939393939</v>
+        <v>0.944584382871537</v>
       </c>
       <c r="H2">
-        <v>0.0202020202020202</v>
+        <v>0.0138539042821159</v>
       </c>
       <c r="I2">
-        <v>0.757575757575758</v>
+        <v>0.730478589420655</v>
       </c>
       <c r="J2">
-        <v>0.0404040404040404</v>
+        <v>0.0428211586901763</v>
       </c>
       <c r="K2">
-        <v>0.0505050505050505</v>
+        <v>0.0390428211586902</v>
       </c>
       <c r="L2">
-        <v>0.0404040404040404</v>
+        <v>0.0377833753148615</v>
       </c>
       <c r="M2">
-        <v>0.898989898989899</v>
+        <v>0.838790931989924</v>
       </c>
       <c r="N2">
-        <v>0.0101010101010101</v>
+        <v>0.0100755667506297</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0404040404040404</v>
+        <v>0.0327455919395466</v>
       </c>
       <c r="Q2">
-        <v>0.939393939393939</v>
+        <v>0.928211586901763</v>
       </c>
       <c r="R2">
-        <v>0.0101010101010101</v>
+        <v>0.00629722921914358</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00377833753148615</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00629722921914358</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0113350125944584</v>
       </c>
       <c r="X2">
-        <v>0.0101010101010101</v>
+        <v>0.00755667506297229</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0101010101010101</v>
+        <v>0.0654911838790932</v>
       </c>
       <c r="C3">
-        <v>0.252525252525253</v>
+        <v>0.346347607052897</v>
       </c>
       <c r="D3">
-        <v>0.767676767676768</v>
+        <v>0.840050377833753</v>
       </c>
       <c r="E3">
-        <v>0.0404040404040404</v>
+        <v>0.044080604534005</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00125944584382872</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0808080808080808</v>
+        <v>0.0705289672544081</v>
       </c>
       <c r="I3">
-        <v>0.0404040404040404</v>
+        <v>0.0377833753148615</v>
       </c>
       <c r="J3">
-        <v>0.111111111111111</v>
+        <v>0.132241813602015</v>
       </c>
       <c r="K3">
-        <v>0.909090909090909</v>
+        <v>0.919395465994962</v>
       </c>
       <c r="L3">
-        <v>0.95959595959596</v>
+        <v>0.958438287153652</v>
       </c>
       <c r="M3">
-        <v>0.0606060606060606</v>
+        <v>0.109571788413098</v>
       </c>
       <c r="N3">
-        <v>0.898989898989899</v>
+        <v>0.919395465994962</v>
       </c>
       <c r="O3">
-        <v>0.0202020202020202</v>
+        <v>0.0151133501259446</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00125944584382872</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.848484848484849</v>
+        <v>0.851385390428212</v>
       </c>
       <c r="S3">
-        <v>0.98989898989899</v>
+        <v>0.983627204030227</v>
       </c>
       <c r="T3">
-        <v>0.0505050505050505</v>
+        <v>0.0554156171284635</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00755667506297229</v>
       </c>
       <c r="V3">
-        <v>0.0202020202020202</v>
+        <v>0.0214105793450882</v>
       </c>
       <c r="W3">
-        <v>0.0404040404040404</v>
+        <v>0.0327455919395466</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00125944584382872</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,55 +613,55 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.444444444444444</v>
+        <v>0.353904282115869</v>
       </c>
       <c r="C4">
-        <v>0.0303030303030303</v>
+        <v>0.0251889168765743</v>
       </c>
       <c r="D4">
-        <v>0.0101010101010101</v>
+        <v>0.00377833753148615</v>
       </c>
       <c r="E4">
-        <v>0.0101010101010101</v>
+        <v>0.00377833753148615</v>
       </c>
       <c r="F4">
-        <v>0.939393939393939</v>
+        <v>0.945843828715365</v>
       </c>
       <c r="G4">
-        <v>0.0505050505050505</v>
+        <v>0.0516372795969773</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00251889168765743</v>
       </c>
       <c r="I4">
-        <v>0.0202020202020202</v>
+        <v>0.0188916876574307</v>
       </c>
       <c r="J4">
-        <v>0.0707070707070707</v>
+        <v>0.052896725440806</v>
       </c>
       <c r="K4">
-        <v>0.0404040404040404</v>
+        <v>0.0390428211586902</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00125944584382872</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00629722921914358</v>
       </c>
       <c r="N4">
-        <v>0.0101010101010101</v>
+        <v>0.00377833753148615</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.95959595959596</v>
+        <v>0.963476070528967</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00377833753148615</v>
       </c>
       <c r="R4">
-        <v>0.121212121212121</v>
+        <v>0.134760705289673</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00251889168765743</v>
       </c>
       <c r="V4">
-        <v>0.0707070707070707</v>
+        <v>0.0541561712846348</v>
       </c>
       <c r="W4">
-        <v>0.94949494949495</v>
+        <v>0.953400503778338</v>
       </c>
       <c r="X4">
-        <v>0.94949494949495</v>
+        <v>0.954659949622166</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0202020202020202</v>
+        <v>0.00629722921914358</v>
       </c>
       <c r="C5">
-        <v>0.707070707070707</v>
+        <v>0.612090680100756</v>
       </c>
       <c r="D5">
-        <v>0.141414141414141</v>
+        <v>0.0931989924433249</v>
       </c>
       <c r="E5">
-        <v>0.0101010101010101</v>
+        <v>0.00503778337531486</v>
       </c>
       <c r="F5">
-        <v>0.0505050505050505</v>
+        <v>0.0415617128463476</v>
       </c>
       <c r="G5">
-        <v>0.0101010101010101</v>
+        <v>0.00377833753148615</v>
       </c>
       <c r="H5">
-        <v>0.898989898989899</v>
+        <v>0.913098236775819</v>
       </c>
       <c r="I5">
-        <v>0.181818181818182</v>
+        <v>0.212846347607053</v>
       </c>
       <c r="J5">
-        <v>0.777777777777778</v>
+        <v>0.772040302267002</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00125944584382872</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00251889168765743</v>
       </c>
       <c r="M5">
-        <v>0.0404040404040404</v>
+        <v>0.0453400503778338</v>
       </c>
       <c r="N5">
-        <v>0.0808080808080808</v>
+        <v>0.0667506297229219</v>
       </c>
       <c r="O5">
-        <v>0.97979797979798</v>
+        <v>0.984886649874055</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00251889168765743</v>
       </c>
       <c r="Q5">
-        <v>0.0606060606060606</v>
+        <v>0.0680100755667506</v>
       </c>
       <c r="R5">
-        <v>0.0202020202020202</v>
+        <v>0.00755667506297229</v>
       </c>
       <c r="S5">
-        <v>0.0101010101010101</v>
+        <v>0.0125944584382872</v>
       </c>
       <c r="T5">
-        <v>0.94949494949495</v>
+        <v>0.944584382871537</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.983627204030227</v>
       </c>
       <c r="V5">
-        <v>0.909090909090909</v>
+        <v>0.924433249370277</v>
       </c>
       <c r="W5">
-        <v>0.0101010101010101</v>
+        <v>0.00251889168765743</v>
       </c>
       <c r="X5">
-        <v>0.0404040404040404</v>
+        <v>0.0365239294710327</v>
       </c>
     </row>
   </sheetData>
